--- a/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_general.xlsx
+++ b/teaching/traditional_assets/database/data/indonesia/indonesia_insurance_general.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ7"/>
+  <dimension ref="A1:AQ8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>6</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,118 +591,121 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.003700000000000002</v>
+        <v>-0.0211</v>
       </c>
       <c r="E2">
-        <v>-0.099</v>
+        <v>-0.175</v>
       </c>
       <c r="G2">
-        <v>0.09582048455958714</v>
+        <v>0.2055830401777449</v>
       </c>
       <c r="H2">
-        <v>0.09582048455958714</v>
+        <v>0.2055830401777449</v>
       </c>
       <c r="I2">
-        <v>0.2204658584041922</v>
+        <v>0.05776004443621551</v>
       </c>
       <c r="J2">
-        <v>0.1993336065179831</v>
+        <v>0.04568702200596951</v>
       </c>
       <c r="K2">
-        <v>421.397</v>
+        <v>27.698</v>
       </c>
       <c r="L2">
-        <v>0.1676728168358394</v>
+        <v>0.01025661914460285</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>10.369</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.001722651311384717</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.3743591595061015</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>10.369</v>
       </c>
       <c r="Q2">
-        <v>0</v>
+        <v>0.001722651311384717</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.3743591595061015</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
       <c r="U2">
-        <v>653</v>
+        <v>547.7950000000001</v>
       </c>
       <c r="V2">
-        <v>0.08229021351348967</v>
+        <v>0.09100779005882834</v>
       </c>
       <c r="W2">
-        <v>0.02189841798501249</v>
+        <v>0.001828363604968649</v>
       </c>
       <c r="X2">
-        <v>0.05710054611724377</v>
+        <v>0.05268856651270041</v>
       </c>
       <c r="Y2">
-        <v>-0.03520212813223128</v>
+        <v>-0.05086020290773176</v>
       </c>
       <c r="Z2">
-        <v>1.973883765004151</v>
+        <v>1.668572812612569</v>
       </c>
       <c r="AA2">
-        <v>0.02616501999177392</v>
+        <v>0.01367479789699813</v>
       </c>
       <c r="AB2">
-        <v>0.05710054611724377</v>
+        <v>0.05268414315987453</v>
       </c>
       <c r="AC2">
-        <v>-0.03093552612546985</v>
+        <v>-0.04354723348160756</v>
       </c>
       <c r="AD2">
-        <v>488.659</v>
+        <v>493.556</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>488.659</v>
+        <v>493.556</v>
       </c>
       <c r="AG2">
-        <v>-164.341</v>
+        <v>-54.23900000000009</v>
       </c>
       <c r="AH2">
-        <v>0.05800802921276369</v>
+        <v>0.07578285478090262</v>
       </c>
       <c r="AI2">
-        <v>0.2109581376795421</v>
+        <v>0.2150855712477819</v>
       </c>
       <c r="AJ2">
-        <v>-0.02114801603759831</v>
+        <v>-0.009092919311761967</v>
       </c>
       <c r="AK2">
-        <v>-0.09879949187767792</v>
+        <v>-0.03104869709273742</v>
       </c>
       <c r="AL2">
-        <v>124.105</v>
+        <v>123.319</v>
       </c>
       <c r="AM2">
-        <v>124.105</v>
+        <v>123.319</v>
       </c>
       <c r="AN2">
-        <v>0.8191142699096501</v>
+        <v>2.37567507725483</v>
       </c>
       <c r="AO2">
-        <v>4.464582410056002</v>
+        <v>1.264857807799285</v>
       </c>
       <c r="AP2">
-        <v>-0.2754764738421309</v>
+        <v>-0.2610731923332407</v>
       </c>
       <c r="AQ2">
-        <v>4.464582410056002</v>
+        <v>1.264857807799285</v>
       </c>
     </row>
     <row r="3">
@@ -722,28 +725,28 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.187</v>
+        <v>0.217</v>
       </c>
       <c r="E3">
-        <v>0.616</v>
+        <v>-0.07829999999999999</v>
       </c>
       <c r="G3">
-        <v>0.09624326214870592</v>
+        <v>0.2136835914526563</v>
       </c>
       <c r="H3">
-        <v>0.09624326214870592</v>
+        <v>0.2136835914526563</v>
       </c>
       <c r="I3">
-        <v>0.2268855696827552</v>
+        <v>0.0617525975298961</v>
       </c>
       <c r="J3">
-        <v>0.2268380012123152</v>
+        <v>0.0479222922766567</v>
       </c>
       <c r="K3">
-        <v>419.9</v>
+        <v>32</v>
       </c>
       <c r="L3">
-        <v>0.1727770234127474</v>
+        <v>0.01254655949813762</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -767,73 +770,73 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>618.8</v>
+        <v>500.1</v>
       </c>
       <c r="V3">
-        <v>0.08865075499269362</v>
+        <v>0.09568361841350018</v>
       </c>
       <c r="W3">
-        <v>0.3092958161461403</v>
+        <v>0.02188782489740082</v>
       </c>
       <c r="X3">
-        <v>0.05908945331800398</v>
+        <v>0.0559420262772192</v>
       </c>
       <c r="Y3">
-        <v>0.2502063628281363</v>
+        <v>-0.03405420137981838</v>
       </c>
       <c r="Z3">
-        <v>2.193356124574469</v>
+        <v>1.916833260683311</v>
       </c>
       <c r="AA3">
-        <v>0.4975365192452625</v>
+        <v>0.09185904376408251</v>
       </c>
       <c r="AB3">
-        <v>0.05768329911478197</v>
+        <v>0.0538845749878324</v>
       </c>
       <c r="AC3">
-        <v>0.4398532201304806</v>
+        <v>0.03797446877625011</v>
       </c>
       <c r="AD3">
-        <v>488.4</v>
+        <v>462.2</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>488.4</v>
+        <v>462.2</v>
       </c>
       <c r="AG3">
-        <v>-130.4</v>
+        <v>-37.90000000000003</v>
       </c>
       <c r="AH3">
-        <v>0.06539378196716922</v>
+        <v>0.08124736324005062</v>
       </c>
       <c r="AI3">
-        <v>0.2307365238342703</v>
+        <v>0.2331987891019172</v>
       </c>
       <c r="AJ3">
-        <v>-0.01903705217670588</v>
+        <v>-0.007304334419025966</v>
       </c>
       <c r="AK3">
-        <v>-0.08705521062821281</v>
+        <v>-0.02557527498481681</v>
       </c>
       <c r="AL3">
-        <v>124.1</v>
+        <v>119.9</v>
       </c>
       <c r="AM3">
-        <v>124.1</v>
+        <v>119.9</v>
       </c>
       <c r="AN3">
-        <v>0.8240256453517799</v>
+        <v>2.233929434509425</v>
       </c>
       <c r="AO3">
-        <v>4.443190975020145</v>
+        <v>1.313594662218515</v>
       </c>
       <c r="AP3">
-        <v>-0.2200101231651763</v>
+        <v>-0.1831802803286613</v>
       </c>
       <c r="AQ3">
-        <v>4.443190975020145</v>
+        <v>1.313594662218515</v>
       </c>
     </row>
     <row r="4">
@@ -844,7 +847,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>PT Asuransi Kresna Mitra Tbk (IDX:ASMI)</t>
+          <t>P.T. Asuransi Multi Artha Guna Tbk (IDX:AMAG)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -853,118 +856,115 @@
         </is>
       </c>
       <c r="D4">
-        <v>-0.0578</v>
+        <v>-0.0211</v>
       </c>
       <c r="E4">
-        <v>-0.099</v>
+        <v>-0.175</v>
       </c>
       <c r="G4">
-        <v>0.4195121951219512</v>
+        <v>0.1319845857418112</v>
       </c>
       <c r="H4">
-        <v>0.4195121951219512</v>
+        <v>0.1319845857418112</v>
       </c>
       <c r="I4">
-        <v>0.1252032520325203</v>
+        <v>0.1223506743737958</v>
       </c>
       <c r="J4">
-        <v>0.1030840108401084</v>
+        <v>0.1186607334006178</v>
       </c>
       <c r="K4">
-        <v>1.48</v>
+        <v>6.11</v>
       </c>
       <c r="L4">
-        <v>0.1203252032520325</v>
+        <v>0.1177263969171484</v>
       </c>
       <c r="M4">
-        <v>-0</v>
+        <v>10.1</v>
       </c>
       <c r="N4">
-        <v>-0</v>
+        <v>0.1240786240786241</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>1.653027823240589</v>
       </c>
       <c r="P4">
-        <v>-0</v>
+        <v>10.1</v>
       </c>
       <c r="Q4">
-        <v>-0</v>
+        <v>0.1240786240786241</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>1.653027823240589</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
       <c r="U4">
-        <v>1.06</v>
+        <v>30</v>
       </c>
       <c r="V4">
-        <v>0.001278957528957529</v>
+        <v>0.3685503685503685</v>
       </c>
       <c r="W4">
-        <v>0.04216524216524217</v>
+        <v>0.04482758620689655</v>
       </c>
       <c r="X4">
-        <v>0.05710942905774001</v>
+        <v>0.05268117554511614</v>
       </c>
       <c r="Y4">
-        <v>-0.01494418689249784</v>
+        <v>-0.007853589338219592</v>
       </c>
       <c r="Z4">
-        <v>0.3540281495553061</v>
+        <v>0.4887005649717513</v>
       </c>
       <c r="AA4">
-        <v>0.03649464160646269</v>
+        <v>0.05798956745284427</v>
       </c>
       <c r="AB4">
-        <v>0.05710333007337173</v>
+        <v>0.05268117554511614</v>
       </c>
       <c r="AC4">
-        <v>-0.02060868846690903</v>
+        <v>0.005308391907728131</v>
       </c>
       <c r="AD4">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>0.259</v>
+        <v>0</v>
       </c>
       <c r="AG4">
-        <v>-0.801</v>
+        <v>-30</v>
       </c>
       <c r="AH4">
-        <v>0.0003124023742580444</v>
+        <v>0</v>
       </c>
       <c r="AI4">
-        <v>0.00671697917477113</v>
+        <v>0</v>
       </c>
       <c r="AJ4">
-        <v>-0.0009673924726962232</v>
+        <v>-0.5836575875486381</v>
       </c>
       <c r="AK4">
-        <v>-0.02136056961518974</v>
+        <v>-0.3080082135523614</v>
       </c>
       <c r="AL4">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AM4">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="AN4">
-        <v>0.1523529411764706</v>
-      </c>
-      <c r="AO4">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="AP4">
-        <v>-0.4711764705882353</v>
-      </c>
-      <c r="AQ4">
-        <v>308</v>
+        <v>-4.219409282700422</v>
       </c>
     </row>
     <row r="5">
@@ -975,7 +975,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>P.T. Asuransi Multi Artha Guna Tbk (IDX:AMAG)</t>
+          <t>PT Malacca Trust Wuwungan Insurance Tbk (IDX:MTWI)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -983,29 +983,23 @@
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D5">
-        <v>0.0504</v>
-      </c>
-      <c r="E5">
-        <v>-0.245</v>
-      </c>
       <c r="G5">
-        <v>0.0836893203883495</v>
+        <v>0.05863402061855671</v>
       </c>
       <c r="H5">
-        <v>0.0836893203883495</v>
+        <v>0.05863402061855671</v>
       </c>
       <c r="I5">
-        <v>0.08388349514563108</v>
+        <v>0.02461340206185567</v>
       </c>
       <c r="J5">
-        <v>0.05851819422626254</v>
+        <v>0.01230670103092784</v>
       </c>
       <c r="K5">
-        <v>2.63</v>
+        <v>0.005</v>
       </c>
       <c r="L5">
-        <v>0.05106796116504854</v>
+        <v>0.0006443298969072165</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1029,31 +1023,31 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>30.1</v>
+        <v>2.31</v>
       </c>
       <c r="V5">
-        <v>0.2823639774859287</v>
+        <v>0.3392070484581498</v>
       </c>
       <c r="W5">
-        <v>0.02189841798501249</v>
+        <v>0.0005422993492407809</v>
       </c>
       <c r="X5">
-        <v>0.05710054611724377</v>
+        <v>0.05268117554511614</v>
       </c>
       <c r="Y5">
-        <v>-0.03520212813223128</v>
+        <v>-0.05213887619587537</v>
       </c>
       <c r="Z5">
-        <v>0.4471262371939573</v>
+        <v>1.074792243767313</v>
       </c>
       <c r="AA5">
-        <v>0.02616501999177392</v>
+        <v>0.01322714681440443</v>
       </c>
       <c r="AB5">
-        <v>0.05710054611724377</v>
+        <v>0.05268117554511614</v>
       </c>
       <c r="AC5">
-        <v>-0.03093552612546985</v>
+        <v>-0.03945402873071172</v>
       </c>
       <c r="AD5">
         <v>0</v>
@@ -1065,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="AG5">
-        <v>-30.1</v>
+        <v>-2.31</v>
       </c>
       <c r="AH5">
         <v>0</v>
@@ -1074,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="AJ5">
-        <v>-0.3934640522875817</v>
+        <v>-0.5133333333333333</v>
       </c>
       <c r="AK5">
-        <v>-0.283427495291902</v>
+        <v>-0.3432392273402675</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1089,7 +1083,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>-5.844660194174757</v>
+        <v>-8.13380281690141</v>
       </c>
     </row>
     <row r="6">
@@ -1100,7 +1094,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>PT Malacca Trust Wuwungan Insurance Tbk (IDX:MTWI)</t>
+          <t>PT Equity Development Investment Tbk (IDX:GSMF)</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1108,107 +1102,122 @@
           <t>Insurance (General)</t>
         </is>
       </c>
+      <c r="D6">
+        <v>-0.00426</v>
+      </c>
+      <c r="E6">
+        <v>-0.4429999999999999</v>
+      </c>
       <c r="G6">
-        <v>0.001043219076005961</v>
+        <v>0.1366711772665764</v>
       </c>
       <c r="H6">
-        <v>0.001043219076005961</v>
+        <v>0.1366711772665764</v>
       </c>
       <c r="I6">
-        <v>0.001043219076005961</v>
+        <v>0.04682002706359945</v>
       </c>
       <c r="J6">
-        <v>0.001043219076005961</v>
+        <v>0.02341001353179973</v>
       </c>
       <c r="K6">
-        <v>-0.103</v>
+        <v>0.313</v>
       </c>
       <c r="L6">
-        <v>-0.01535022354694486</v>
+        <v>0.004235453315290933</v>
       </c>
       <c r="M6">
-        <v>-0</v>
+        <v>0.269</v>
       </c>
       <c r="N6">
-        <v>-0</v>
+        <v>0.005274509803921569</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.8594249201277956</v>
       </c>
       <c r="P6">
-        <v>-0</v>
+        <v>0.269</v>
       </c>
       <c r="Q6">
-        <v>-0</v>
+        <v>0.005274509803921569</v>
       </c>
       <c r="R6">
-        <v>0</v>
+        <v>0.8594249201277956</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
       <c r="U6">
-        <v>1.89</v>
+        <v>12.5</v>
       </c>
       <c r="V6">
-        <v>0.2688477951635846</v>
+        <v>0.2450980392156863</v>
       </c>
       <c r="W6">
-        <v>-0.01237980769230769</v>
+        <v>0.003114427860696517</v>
       </c>
       <c r="X6">
-        <v>0.05710054611724377</v>
+        <v>0.0751670848693347</v>
       </c>
       <c r="Y6">
-        <v>-0.06948035380955146</v>
+        <v>-0.07205265700863818</v>
       </c>
       <c r="Z6">
-        <v>1.118333333333333</v>
+        <v>0.6032653061224491</v>
       </c>
       <c r="AA6">
-        <v>0.001166666666666667</v>
+        <v>0.01412244897959184</v>
       </c>
       <c r="AB6">
-        <v>0.05710054611724377</v>
+        <v>0.06176288721209524</v>
       </c>
       <c r="AC6">
-        <v>-0.0559338794505771</v>
+        <v>-0.0476404382325034</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>0</v>
+        <v>31.1</v>
       </c>
       <c r="AG6">
-        <v>-1.89</v>
+        <v>18.6</v>
       </c>
       <c r="AH6">
-        <v>0</v>
+        <v>0.3788063337393423</v>
       </c>
       <c r="AI6">
-        <v>0</v>
+        <v>0.2303703703703704</v>
       </c>
       <c r="AJ6">
-        <v>-0.3677042801556419</v>
+        <v>0.2672413793103449</v>
       </c>
       <c r="AK6">
-        <v>-0.257844474761255</v>
+        <v>0.1518367346938776</v>
       </c>
       <c r="AL6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AM6">
-        <v>0</v>
+        <v>3.4</v>
       </c>
       <c r="AN6">
-        <v>0</v>
+        <v>6.835164835164836</v>
+      </c>
+      <c r="AO6">
+        <v>1.017647058823529</v>
       </c>
       <c r="AP6">
-        <v>-15.75</v>
+        <v>4.087912087912088</v>
+      </c>
+      <c r="AQ6">
+        <v>1.017647058823529</v>
       </c>
     </row>
     <row r="7">
@@ -1219,118 +1228,246 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>PT Asuransi Kresna Mitra Tbk (IDX:ASMI)</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Insurance (General)</t>
+        </is>
+      </c>
+      <c r="D7">
+        <v>-0.0969</v>
+      </c>
+      <c r="G7">
+        <v>0.08922716627634661</v>
+      </c>
+      <c r="H7">
+        <v>0.08922716627634661</v>
+      </c>
+      <c r="I7">
+        <v>-0.823185011709602</v>
+      </c>
+      <c r="J7">
+        <v>-0.823185011709602</v>
+      </c>
+      <c r="K7">
+        <v>-6.33</v>
+      </c>
+      <c r="L7">
+        <v>-0.7412177985948478</v>
+      </c>
+      <c r="M7">
+        <v>-0</v>
+      </c>
+      <c r="N7">
+        <v>-0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>-0</v>
+      </c>
+      <c r="Q7">
+        <v>-0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1.98</v>
+      </c>
+      <c r="V7">
+        <v>0.003100532414657062</v>
+      </c>
+      <c r="W7">
+        <v>-0.1652741514360314</v>
+      </c>
+      <c r="X7">
+        <v>0.05269595748028467</v>
+      </c>
+      <c r="Y7">
+        <v>-0.217970108916316</v>
+      </c>
+      <c r="Z7">
+        <v>0.2277394063841703</v>
+      </c>
+      <c r="AA7">
+        <v>-0.187471665911091</v>
+      </c>
+      <c r="AB7">
+        <v>0.05268711077463292</v>
+      </c>
+      <c r="AC7">
+        <v>-0.2401587766857239</v>
+      </c>
+      <c r="AD7">
+        <v>0.256</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0.256</v>
+      </c>
+      <c r="AG7">
+        <v>-1.724</v>
+      </c>
+      <c r="AH7">
+        <v>0.0004007162803511276</v>
+      </c>
+      <c r="AI7">
+        <v>0.008378059955491556</v>
+      </c>
+      <c r="AJ7">
+        <v>-0.00270696336492504</v>
+      </c>
+      <c r="AK7">
+        <v>-0.06033034714445688</v>
+      </c>
+      <c r="AL7">
+        <v>0.019</v>
+      </c>
+      <c r="AM7">
+        <v>0.019</v>
+      </c>
+      <c r="AN7">
+        <v>-0.03726346433770015</v>
+      </c>
+      <c r="AO7">
+        <v>-370</v>
+      </c>
+      <c r="AP7">
+        <v>0.2509461426491994</v>
+      </c>
+      <c r="AQ7">
+        <v>-370</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>PT Asuransi Harta Aman Pratama Tbk (IDX:AHAP)</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Insurance (General)</t>
         </is>
       </c>
-      <c r="D7">
-        <v>-0.0616</v>
-      </c>
-      <c r="G7">
-        <v>-0.2064516129032258</v>
-      </c>
-      <c r="H7">
-        <v>-0.2064516129032258</v>
-      </c>
-      <c r="I7">
-        <v>-0.257258064516129</v>
-      </c>
-      <c r="J7">
-        <v>-0.257258064516129</v>
-      </c>
-      <c r="K7">
-        <v>-2.51</v>
-      </c>
-      <c r="L7">
-        <v>-0.2024193548387097</v>
-      </c>
-      <c r="M7">
-        <v>-0</v>
-      </c>
-      <c r="N7">
-        <v>-0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>-0</v>
-      </c>
-      <c r="Q7">
-        <v>-0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1.15</v>
-      </c>
-      <c r="V7">
-        <v>0.0905511811023622</v>
-      </c>
-      <c r="W7">
-        <v>-0.1467836257309941</v>
-      </c>
-      <c r="X7">
-        <v>0.05710054611724377</v>
-      </c>
-      <c r="Y7">
-        <v>-0.2038841718482379</v>
-      </c>
-      <c r="Z7">
-        <v>1.336206896551724</v>
-      </c>
-      <c r="AA7">
-        <v>-0.3437499999999999</v>
-      </c>
-      <c r="AB7">
-        <v>0.05710054611724377</v>
-      </c>
-      <c r="AC7">
-        <v>-0.4008505461172437</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>-1.15</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>-0.09956709956709957</v>
-      </c>
-      <c r="AK7">
-        <v>-0.07958477508650519</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>-0</v>
-      </c>
-      <c r="AP7">
-        <v>0.3709677419354838</v>
+      <c r="D8">
+        <v>-0.144</v>
+      </c>
+      <c r="G8">
+        <v>-1.011392405063291</v>
+      </c>
+      <c r="H8">
+        <v>-1.011392405063291</v>
+      </c>
+      <c r="I8">
+        <v>-0.5683544303797469</v>
+      </c>
+      <c r="J8">
+        <v>-0.5683544303797469</v>
+      </c>
+      <c r="K8">
+        <v>-4.4</v>
+      </c>
+      <c r="L8">
+        <v>-0.5569620253164557</v>
+      </c>
+      <c r="M8">
+        <v>-0</v>
+      </c>
+      <c r="N8">
+        <v>-0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>-0</v>
+      </c>
+      <c r="Q8">
+        <v>-0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0.905</v>
+      </c>
+      <c r="V8">
+        <v>0.06114864864864865</v>
+      </c>
+      <c r="W8">
+        <v>-0.2820512820512821</v>
+      </c>
+      <c r="X8">
+        <v>0.05268117554511614</v>
+      </c>
+      <c r="Y8">
+        <v>-0.3347324575963982</v>
+      </c>
+      <c r="Z8">
+        <v>0.5467128027681661</v>
+      </c>
+      <c r="AA8">
+        <v>-0.310726643598616</v>
+      </c>
+      <c r="AB8">
+        <v>0.05268117554511614</v>
+      </c>
+      <c r="AC8">
+        <v>-0.3634078191437321</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>-0.905</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+      <c r="AJ8">
+        <v>-0.06513134220942784</v>
+      </c>
+      <c r="AK8">
+        <v>-0.09239407861153651</v>
+      </c>
+      <c r="AL8">
+        <v>0</v>
+      </c>
+      <c r="AM8">
+        <v>0</v>
+      </c>
+      <c r="AN8">
+        <v>-0</v>
+      </c>
+      <c r="AP8">
+        <v>0.2144549763033176</v>
       </c>
     </row>
   </sheetData>
